--- a/MainTop/30.06.2025 Макс ВБ/WB_поставка_30.06.2025 Макс ВБ.xlsx
+++ b/MainTop/30.06.2025 Макс ВБ/WB_поставка_30.06.2025 Макс ВБ.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,30 +1110,20 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>OZN1214740252</t>
+          <t>OZN1054572723</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>OZN1054572723</t>
+          <t>OZN1235284831</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="inlineStr">
-        <is>
-          <t>OZN1235284831</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n">
         <v>2</v>
       </c>
     </row>

--- a/MainTop/30.06.2025 Макс ВБ/WB_поставка_30.06.2025 Макс ВБ.xlsx
+++ b/MainTop/30.06.2025 Макс ВБ/WB_поставка_30.06.2025 Макс ВБ.xlsx
@@ -710,61 +710,61 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>OZN1463877548</t>
+          <t>OZN1425243566</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>OZN1463877605</t>
+          <t>OZN1425250805</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>OZN1489754989</t>
+          <t>OZN1463877548</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>OZN1336986360</t>
+          <t>OZN1463877605</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>OZN1425243566</t>
+          <t>OZN1489754989</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>OZN1425250805</t>
+          <t>OZN1336986360</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
